--- a/good_statistics/statistics_num_generated_nodes_not_informed.xlsx
+++ b/good_statistics/statistics_num_generated_nodes_not_informed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dev\IPL\InteligenciaArtificial\Projeto\MummyMazeProject\good_statistics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D88410D-3E66-4B74-933C-98A2C838A10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E93215A2-26AD-49FB-8F79-A15D5BA9D236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,36 +17,29 @@
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">statistics_num_generated_nodes_!$A$3:$A$28</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">statistics_num_generated_nodes_!$B$1:$B$2</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">statistics_num_generated_nodes_!$F$3:$F$28</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">statistics_num_generated_nodes_!$G$1:$G$2</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">statistics_num_generated_nodes_!$G$3:$G$28</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">statistics_num_generated_nodes_!$A$3:$A$28</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">statistics_num_generated_nodes_!$B$3:$B$28</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">statistics_num_generated_nodes_!$C$3:$C$28</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">statistics_num_generated_nodes_!$D$3:$D$28</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">statistics_num_generated_nodes_!$E$3:$E$28</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">statistics_num_generated_nodes_!$F$3:$F$28</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">statistics_num_generated_nodes_!$G$3:$G$28</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">statistics_num_generated_nodes_!$B$3:$B$28</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">statistics_num_generated_nodes_!$G$36:$G$61</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">statistics_num_generated_nodes_!$H$36:$H$61</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">statistics_num_generated_nodes_!$G$36:$G$61</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">statistics_num_generated_nodes_!$H$36:$H$61</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">statistics_num_generated_nodes_!$C$1:$C$2</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">statistics_num_generated_nodes_!$C$3:$C$28</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">statistics_num_generated_nodes_!$D$1:$D$2</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">statistics_num_generated_nodes_!$D$3:$D$28</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">statistics_num_generated_nodes_!$E$1:$E$2</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">statistics_num_generated_nodes_!$E$3:$E$28</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">statistics_num_generated_nodes_!$F$1:$F$2</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">statistics_num_generated_nodes_!$B$3:$B$28</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">statistics_num_generated_nodes_!$C$3:$C$28</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">statistics_num_generated_nodes_!$D$3:$D$28</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">statistics_num_generated_nodes_!$E$3:$E$28</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">statistics_num_generated_nodes_!$F$3:$F$28</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">statistics_num_generated_nodes_!$G$3:$G$28</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="39">
   <si>
     <t>Breadth first search</t>
   </si>
@@ -160,15 +153,6 @@
   </si>
   <si>
     <t>Breadth</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>Running Total</t>
-  </si>
-  <si>
-    <t>Count</t>
   </si>
   <si>
     <t>Depth</t>
@@ -1482,61 +1466,55 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.14</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.15</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.16</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.17</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.18</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="5">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.13</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.19</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
   <cx:chart>
-    <cx:title pos="t" align="ctr" overlay="0">
-      <cx:tx>
-        <cx:txData>
-          <cx:v>Chart Title</cx:v>
-        </cx:txData>
-      </cx:tx>
-    </cx:title>
+    <cx:title pos="t" align="ctr" overlay="0"/>
     <cx:plotArea>
       <cx:plotAreaRegion>
         <cx:series layoutId="clusteredColumn" uniqueId="{FCDE33E8-B33B-4791-A04B-F8EC2749C5B1}" formatIdx="0">
@@ -3303,7 +3281,7 @@
           <xdr:spPr>
             <a:xfrm>
               <a:off x="9344025" y="885825"/>
-              <a:ext cx="4572000" cy="2777490"/>
+              <a:ext cx="5387340" cy="2777490"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -3707,8 +3685,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:R62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F33" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+    <sheetView tabSelected="1" topLeftCell="F36" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35:H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4397,7 +4375,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="Q34" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
